--- a/Test cases Befree.xlsx
+++ b/Test cases Befree.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="129">
   <si>
     <t>passed</t>
   </si>
@@ -542,12 +542,18 @@
   <si>
     <t>Переход по ссылке на страницу магазина на youtube</t>
   </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +718,14 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -899,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1047,30 +1061,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1109,6 +1099,43 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,7 +1496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1524,10 +1551,2905 @@
   <dimension ref="A1:EH82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="3.44140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="2.109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="80" customWidth="1"/>
+    <col min="13" max="13" width="2.109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="2.109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="2.44140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="2.44140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="2.44140625" style="8" customWidth="1"/>
+    <col min="22" max="138" width="8.77734375" style="30"/>
+    <col min="139" max="16384" width="8.77734375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:124">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6">
+        <f>COUNTIF(L$8:L$22,"failed")</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6">
+        <f>COUNTIF(N$8:N$75,"failed")</f>
+        <v>0</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6">
+        <f>COUNTIF(P$8:P$75,"failed")</f>
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="6">
+        <f>COUNTIF(R$8:R$75,"failed")</f>
+        <v>0</v>
+      </c>
+      <c r="S1" s="5"/>
+      <c r="T1" s="6">
+        <f>COUNTIF(T$8:T$75,"failed")</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:124">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="9">
+        <f>COUNTIF(L$8:L$22,"passed")</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="9">
+        <f>COUNTIF(N$8:N$22,"passed")</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="9">
+        <f>COUNTIF(P$8:P$22,"passed")</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="9">
+        <f>COUNTIF(R$8:R$22,"passed")</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="9">
+        <f>COUNTIF(T$8:T$22,"passed")</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="3" spans="1:124">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:124">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+    </row>
+    <row r="5" spans="1:124" ht="25.95" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+    </row>
+    <row r="6" spans="1:124" ht="27" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+    </row>
+    <row r="7" spans="1:124" ht="84" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+    </row>
+    <row r="8" spans="1:124" ht="179.4" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+    </row>
+    <row r="9" spans="1:124" ht="151.80000000000001">
+      <c r="A9" s="2"/>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+    </row>
+    <row r="10" spans="1:124" ht="163.19999999999999" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" spans="1:124" ht="168.6" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="53">
+        <v>4</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="29"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="29"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="29"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="29"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="29"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="29"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="29"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="29"/>
+      <c r="BZ11" s="31"/>
+      <c r="CA11" s="29"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="29"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="29"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="29"/>
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="29"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="29"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="29"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="29"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="29"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="29"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="29"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="29"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="29"/>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="29"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="29"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="29"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="29"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="29"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="32"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="33"/>
+      <c r="DQ11" s="33"/>
+      <c r="DR11" s="33"/>
+      <c r="DS11" s="33"/>
+      <c r="DT11" s="33"/>
+    </row>
+    <row r="12" spans="1:124" ht="166.8" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+    </row>
+    <row r="13" spans="1:124" ht="166.8" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+    </row>
+    <row r="14" spans="1:124" ht="63" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="15">
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+    </row>
+    <row r="15" spans="1:124" ht="76.95" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+    </row>
+    <row r="16" spans="1:124" ht="55.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="15">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+    </row>
+    <row r="17" spans="1:26" ht="41.4" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="15">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+    </row>
+    <row r="18" spans="1:26" ht="58.2" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="15">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+    </row>
+    <row r="19" spans="1:26" ht="55.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="15">
+        <v>12</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+    </row>
+    <row r="20" spans="1:26" ht="63" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="15">
+        <v>13</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+    </row>
+    <row r="21" spans="1:26" ht="220.2" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="15">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+    </row>
+    <row r="22" spans="1:26" s="30" customFormat="1" ht="135" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="15">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+    </row>
+    <row r="23" spans="1:26" s="30" customFormat="1" ht="135" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="15">
+        <v>16</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+    </row>
+    <row r="24" spans="1:26" s="30" customFormat="1" ht="55.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="15">
+        <v>17</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+    </row>
+    <row r="25" spans="1:26" s="30" customFormat="1" ht="69">
+      <c r="A25" s="2"/>
+      <c r="B25" s="15">
+        <v>18</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+    </row>
+    <row r="26" spans="1:26" s="30" customFormat="1" ht="69">
+      <c r="A26" s="2"/>
+      <c r="B26" s="15">
+        <v>19</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+    </row>
+    <row r="27" spans="1:26" s="30" customFormat="1" ht="27.6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="15">
+        <v>20</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+    </row>
+    <row r="28" spans="1:26" s="30" customFormat="1" ht="41.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="15">
+        <v>21</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+    </row>
+    <row r="29" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="15">
+        <v>22</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+    </row>
+    <row r="30" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="15">
+        <v>23</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+    </row>
+    <row r="31" spans="1:26" s="30" customFormat="1" ht="124.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="15">
+        <v>24</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+    </row>
+    <row r="32" spans="1:26" s="30" customFormat="1" ht="234.6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="15">
+        <v>25</v>
+      </c>
+      <c r="C32" s="46"/>
+      <c r="D32" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+    </row>
+    <row r="33" spans="1:26" s="30" customFormat="1" ht="207">
+      <c r="A33" s="2"/>
+      <c r="B33" s="15">
+        <v>26</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+    </row>
+    <row r="34" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="15">
+        <v>27</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+    </row>
+    <row r="35" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="15">
+        <v>28</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+    </row>
+    <row r="36" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="15">
+        <v>29</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+    </row>
+    <row r="37" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="15">
+        <v>30</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+    </row>
+    <row r="38" spans="1:26" s="30" customFormat="1" ht="119.4" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="15">
+        <v>31</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" s="30" customFormat="1" ht="110.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="15">
+        <v>32</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+    </row>
+    <row r="40" spans="1:26" s="30" customFormat="1" ht="27.6">
+      <c r="A40" s="2"/>
+      <c r="B40" s="15">
+        <v>33</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+    </row>
+    <row r="41" spans="1:26" s="30" customFormat="1" ht="27.6">
+      <c r="A41" s="2"/>
+      <c r="B41" s="15">
+        <v>34</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+    </row>
+    <row r="42" spans="1:26" s="30" customFormat="1" ht="27.6">
+      <c r="A42" s="2"/>
+      <c r="B42" s="15">
+        <v>35</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+    </row>
+    <row r="43" spans="1:26" s="30" customFormat="1" ht="27.6">
+      <c r="A43" s="2"/>
+      <c r="B43" s="15">
+        <v>36</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+    </row>
+    <row r="44" spans="1:26" s="30" customFormat="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="15">
+        <v>37</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+    </row>
+    <row r="45" spans="1:26" s="30" customFormat="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="15">
+        <v>38</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+    </row>
+    <row r="46" spans="1:26" s="30" customFormat="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="15">
+        <v>39</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+    </row>
+    <row r="47" spans="1:26" s="30" customFormat="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="15">
+        <v>40</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+    </row>
+    <row r="48" spans="1:26" s="30" customFormat="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="15">
+        <v>41</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+    </row>
+    <row r="49" spans="1:26" s="30" customFormat="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="15">
+        <v>42</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+    </row>
+    <row r="50" spans="1:26" s="30" customFormat="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="15">
+        <v>43</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+    </row>
+    <row r="51" spans="1:26" s="30" customFormat="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="15">
+        <v>44</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+    </row>
+    <row r="52" spans="1:26" s="30" customFormat="1">
+      <c r="A52" s="2"/>
+      <c r="B52" s="15">
+        <v>45</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+    </row>
+    <row r="53" spans="1:26" s="30" customFormat="1">
+      <c r="A53" s="2"/>
+      <c r="B53" s="15">
+        <v>46</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+    </row>
+    <row r="54" spans="1:26" s="30" customFormat="1">
+      <c r="A54" s="2"/>
+      <c r="B54" s="15">
+        <v>47</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+    </row>
+    <row r="55" spans="1:26" s="30" customFormat="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="15">
+        <v>48</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+    </row>
+    <row r="56" spans="1:26" s="30" customFormat="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="15">
+        <v>49</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+    </row>
+    <row r="57" spans="1:26" s="30" customFormat="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="15">
+        <v>50</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+    </row>
+    <row r="58" spans="1:26" s="30" customFormat="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="15">
+        <v>51</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+    </row>
+    <row r="59" spans="1:26" s="30" customFormat="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="15">
+        <v>52</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+    </row>
+    <row r="60" spans="1:26" s="30" customFormat="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="15">
+        <v>53</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+    </row>
+    <row r="61" spans="1:26" s="30" customFormat="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="15">
+        <v>54</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+    </row>
+    <row r="62" spans="1:26" s="30" customFormat="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="15">
+        <v>55</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+    </row>
+    <row r="63" spans="1:26" s="30" customFormat="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+    </row>
+    <row r="64" spans="1:26" s="30" customFormat="1">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="28">
+        <f>COUNT(I8:I22)</f>
+        <v>1</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+    </row>
+    <row r="65" spans="1:26" s="30" customFormat="1">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="28">
+        <f>COUNTA(D8:D22)</f>
+        <v>15</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+    </row>
+    <row r="66" spans="1:26" s="30" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="28">
+        <f>COUNT(J8:J22)</f>
+        <v>1</v>
+      </c>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+    </row>
+    <row r="67" spans="1:26" s="30" customFormat="1">
+      <c r="A67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+    </row>
+    <row r="68" spans="1:26" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+    </row>
+    <row r="69" spans="1:26" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A69" s="26"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+    </row>
+    <row r="70" spans="1:26" s="30" customFormat="1">
+      <c r="A70" s="26"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+    </row>
+    <row r="71" spans="1:26" s="30" customFormat="1">
+      <c r="A71" s="26"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
+      <c r="Y71" s="29"/>
+      <c r="Z71" s="29"/>
+    </row>
+    <row r="72" spans="1:26" s="30" customFormat="1">
+      <c r="A72" s="26"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
+      <c r="Y72" s="29"/>
+      <c r="Z72" s="29"/>
+    </row>
+    <row r="73" spans="1:26" s="30" customFormat="1">
+      <c r="A73" s="26"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+    </row>
+    <row r="74" spans="1:26" s="30" customFormat="1">
+      <c r="A74" s="26"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+    </row>
+    <row r="75" spans="1:26" s="30" customFormat="1">
+      <c r="A75" s="26"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+    </row>
+    <row r="76" spans="1:26" s="30" customFormat="1">
+      <c r="A76" s="26"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
+      <c r="Y76" s="29"/>
+      <c r="Z76" s="29"/>
+    </row>
+    <row r="77" spans="1:26" s="30" customFormat="1">
+      <c r="A77" s="26"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+      <c r="Z77" s="29"/>
+    </row>
+    <row r="78" spans="1:26" s="30" customFormat="1">
+      <c r="A78" s="26"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="78"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+    </row>
+    <row r="79" spans="1:26" s="30" customFormat="1">
+      <c r="A79" s="26"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+    </row>
+    <row r="80" spans="1:26" s="30" customFormat="1">
+      <c r="A80" s="26"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="80"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
+    </row>
+    <row r="81" spans="1:26" s="30" customFormat="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="Z81" s="29"/>
+    </row>
+    <row r="82" spans="1:26" s="30" customFormat="1">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="80"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="Z82" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="R6:R7"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N12:N63 N8:N10 R8:R10 P8:P10 T8:T10 T12:T63 P12:P63 R12:R63">
+      <formula1>Result</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="AT11 AB11 AD11 AJ11 AL11 AN11 AP11 AR11 AV11 AX11 AZ11 BB11 BD11 BF11 BH11 BJ11 BL11 BN11 BP11 BR11 BT11 BV11 BX11 BZ11 CF11 CH11 CL11 CN11 CP11 CR11 CT11 CV11 CX11 CZ11 DB11 DD11 DF11 DH11 DJ11:DT11 CB11 CJ11 N11 P11 R11 T11 V11 X11 Z11 AF11 AH11">
+      <formula1>Result</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:EH41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -1577,22 +4499,22 @@
       </c>
       <c r="M1" s="5"/>
       <c r="N1" s="6">
-        <f>COUNTIF(N$8:N$75,"failed")</f>
+        <f>COUNTIF(N$8:N$34,"failed")</f>
         <v>0</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="6">
-        <f>COUNTIF(P$8:P$75,"failed")</f>
+        <f>COUNTIF(P$8:P$34,"failed")</f>
         <v>0</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="6">
-        <f>COUNTIF(R$8:R$75,"failed")</f>
+        <f>COUNTIF(R$8:R$34,"failed")</f>
         <v>0</v>
       </c>
       <c r="S1" s="5"/>
       <c r="T1" s="6">
-        <f>COUNTIF(T$8:T$75,"failed")</f>
+        <f>COUNTIF(T$8:T$34,"failed")</f>
         <v>0</v>
       </c>
       <c r="U1" s="5"/>
@@ -1745,45 +4667,45 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="71" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="70" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="70" t="s">
         <v>23</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="57"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="57"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="70"/>
       <c r="U6" s="5"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
@@ -1793,29 +4715,29 @@
     </row>
     <row r="7" spans="1:124" ht="84" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="52" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="57"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="70"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="57"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="57"/>
+      <c r="T7" s="70"/>
       <c r="U7" s="5"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
@@ -2399,2871 +5321,6 @@
       <c r="Y20" s="29"/>
       <c r="Z20" s="29"/>
     </row>
-    <row r="21" spans="1:26" ht="220.2" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="15">
-        <v>14</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-    </row>
-    <row r="22" spans="1:26" s="30" customFormat="1" ht="135" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="15">
-        <v>15</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-    </row>
-    <row r="23" spans="1:26" s="30" customFormat="1" ht="135" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="15">
-        <v>16</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-    </row>
-    <row r="24" spans="1:26" s="30" customFormat="1" ht="55.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="15">
-        <v>17</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-    </row>
-    <row r="25" spans="1:26" s="30" customFormat="1" ht="69">
-      <c r="A25" s="2"/>
-      <c r="B25" s="15">
-        <v>18</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-    </row>
-    <row r="26" spans="1:26" s="30" customFormat="1" ht="69">
-      <c r="A26" s="2"/>
-      <c r="B26" s="15">
-        <v>19</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-    </row>
-    <row r="27" spans="1:26" s="30" customFormat="1" ht="27.6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="15">
-        <v>20</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-    </row>
-    <row r="28" spans="1:26" s="30" customFormat="1" ht="41.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="15">
-        <v>21</v>
-      </c>
-      <c r="C28" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-    </row>
-    <row r="29" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="15">
-        <v>22</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-    </row>
-    <row r="30" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="15">
-        <v>23</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-    </row>
-    <row r="31" spans="1:26" s="30" customFormat="1" ht="124.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="15">
-        <v>24</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-    </row>
-    <row r="32" spans="1:26" s="30" customFormat="1" ht="234.6">
-      <c r="A32" s="2"/>
-      <c r="B32" s="15">
-        <v>25</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-    </row>
-    <row r="33" spans="1:26" s="30" customFormat="1" ht="207">
-      <c r="A33" s="2"/>
-      <c r="B33" s="15">
-        <v>26</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-    </row>
-    <row r="34" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="15">
-        <v>27</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-    </row>
-    <row r="35" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="15">
-        <v>28</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-    </row>
-    <row r="36" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="15">
-        <v>29</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-    </row>
-    <row r="37" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="15">
-        <v>30</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-    </row>
-    <row r="38" spans="1:26" s="30" customFormat="1" ht="119.4" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="15">
-        <v>31</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-    </row>
-    <row r="39" spans="1:26" s="30" customFormat="1" ht="110.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="15">
-        <v>32</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-    </row>
-    <row r="40" spans="1:26" s="30" customFormat="1" ht="27.6">
-      <c r="A40" s="2"/>
-      <c r="B40" s="15">
-        <v>33</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-    </row>
-    <row r="41" spans="1:26" s="30" customFormat="1" ht="27.6">
-      <c r="A41" s="2"/>
-      <c r="B41" s="15">
-        <v>34</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-    </row>
-    <row r="42" spans="1:26" s="30" customFormat="1" ht="27.6">
-      <c r="A42" s="2"/>
-      <c r="B42" s="15">
-        <v>35</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-    </row>
-    <row r="43" spans="1:26" s="30" customFormat="1" ht="27.6">
-      <c r="A43" s="2"/>
-      <c r="B43" s="15">
-        <v>36</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-    </row>
-    <row r="44" spans="1:26" s="30" customFormat="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="15">
-        <v>37</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-    </row>
-    <row r="45" spans="1:26" s="30" customFormat="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="15">
-        <v>38</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-    </row>
-    <row r="46" spans="1:26" s="30" customFormat="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="15">
-        <v>39</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-    </row>
-    <row r="47" spans="1:26" s="30" customFormat="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="15">
-        <v>40</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-    </row>
-    <row r="48" spans="1:26" s="30" customFormat="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="15">
-        <v>41</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-    </row>
-    <row r="49" spans="1:26" s="30" customFormat="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="15">
-        <v>42</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-    </row>
-    <row r="50" spans="1:26" s="30" customFormat="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="15">
-        <v>43</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-    </row>
-    <row r="51" spans="1:26" s="30" customFormat="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="15">
-        <v>44</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-    </row>
-    <row r="52" spans="1:26" s="30" customFormat="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="15">
-        <v>45</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-    </row>
-    <row r="53" spans="1:26" s="30" customFormat="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="15">
-        <v>46</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-    </row>
-    <row r="54" spans="1:26" s="30" customFormat="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="15">
-        <v>47</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-    </row>
-    <row r="55" spans="1:26" s="30" customFormat="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="15">
-        <v>48</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-    </row>
-    <row r="56" spans="1:26" s="30" customFormat="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="15">
-        <v>49</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-    </row>
-    <row r="57" spans="1:26" s="30" customFormat="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="15">
-        <v>50</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-    </row>
-    <row r="58" spans="1:26" s="30" customFormat="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="15">
-        <v>51</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-    </row>
-    <row r="59" spans="1:26" s="30" customFormat="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="15">
-        <v>52</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-    </row>
-    <row r="60" spans="1:26" s="30" customFormat="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="15">
-        <v>53</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-    </row>
-    <row r="61" spans="1:26" s="30" customFormat="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="15">
-        <v>54</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-    </row>
-    <row r="62" spans="1:26" s="30" customFormat="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="15">
-        <v>55</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-    </row>
-    <row r="63" spans="1:26" s="30" customFormat="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-    </row>
-    <row r="64" spans="1:26" s="30" customFormat="1">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="28">
-        <f>COUNT(I8:I22)</f>
-        <v>1</v>
-      </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-    </row>
-    <row r="65" spans="1:26" s="30" customFormat="1">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="28">
-        <f>COUNTA(D8:D22)</f>
-        <v>15</v>
-      </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-    </row>
-    <row r="66" spans="1:26" s="30" customFormat="1" ht="34.200000000000003" customHeight="1">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="28">
-        <f>COUNT(J8:J22)</f>
-        <v>1</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="28"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-    </row>
-    <row r="67" spans="1:26" s="30" customFormat="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-    </row>
-    <row r="68" spans="1:26" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-    </row>
-    <row r="69" spans="1:26" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A69" s="26"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-    </row>
-    <row r="70" spans="1:26" s="30" customFormat="1">
-      <c r="A70" s="26"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
-    </row>
-    <row r="71" spans="1:26" s="30" customFormat="1">
-      <c r="A71" s="26"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-    </row>
-    <row r="72" spans="1:26" s="30" customFormat="1">
-      <c r="A72" s="26"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-    </row>
-    <row r="73" spans="1:26" s="30" customFormat="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="29"/>
-    </row>
-    <row r="74" spans="1:26" s="30" customFormat="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
-    </row>
-    <row r="75" spans="1:26" s="30" customFormat="1">
-      <c r="A75" s="26"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="29"/>
-    </row>
-    <row r="76" spans="1:26" s="30" customFormat="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="29"/>
-    </row>
-    <row r="77" spans="1:26" s="30" customFormat="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-    </row>
-    <row r="78" spans="1:26" s="30" customFormat="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
-    </row>
-    <row r="79" spans="1:26" s="30" customFormat="1">
-      <c r="A79" s="26"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-    </row>
-    <row r="80" spans="1:26" s="30" customFormat="1">
-      <c r="A80" s="26"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-    </row>
-    <row r="81" spans="1:26" s="30" customFormat="1">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="Z81" s="29"/>
-    </row>
-    <row r="82" spans="1:26" s="30" customFormat="1">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="Z82" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L63 N12:N63 N8:N10 L8:L10 R8:R10 P8:P10 T8:T10 T12:T63 P12:P63 R12:R63">
-      <formula1>Result</formula1>
-    </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" sqref="AT11 AB11 AD11 AJ11 AL11 AN11 AP11 AR11 AV11 AX11 AZ11 BB11 BD11 BF11 BH11 BJ11 BL11 BN11 BP11 BR11 BT11 BV11 BX11 BZ11 CF11 CH11 CL11 CN11 CP11 CR11 CT11 CV11 CX11 CZ11 DB11 DD11 DF11 DH11 DJ11:DT11 CB11 CJ11 N11 P11 R11 T11 V11 X11 Z11 AF11 AH11">
-      <formula1>Result</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EH41"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="2.109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="2.109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="2.109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="2.44140625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="2.44140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="2.44140625" style="8" customWidth="1"/>
-    <col min="22" max="138" width="8.77734375" style="30"/>
-    <col min="139" max="16384" width="8.77734375" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:124">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6">
-        <f>COUNTIF(L$8:L$22,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6">
-        <f>COUNTIF(N$8:N$34,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6">
-        <f>COUNTIF(P$8:P$34,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6">
-        <f>COUNTIF(R$8:R$34,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6">
-        <f>COUNTIF(T$8:T$34,"failed")</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-    </row>
-    <row r="2" spans="1:124">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="9">
-        <f>COUNTIF(L$8:L$22,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="9">
-        <f>COUNTIF(N$8:N$22,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="9">
-        <f>COUNTIF(P$8:P$22,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="9">
-        <f>COUNTIF(R$8:R$22,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="9">
-        <f>COUNTIF(T$8:T$22,"passed")</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-    </row>
-    <row r="3" spans="1:124">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-    </row>
-    <row r="4" spans="1:124">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-    </row>
-    <row r="5" spans="1:124" ht="25.95" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-    </row>
-    <row r="6" spans="1:124" ht="27" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-    </row>
-    <row r="7" spans="1:124" ht="84" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-    </row>
-    <row r="8" spans="1:124" ht="179.4" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-    </row>
-    <row r="9" spans="1:124" ht="151.80000000000001">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-    </row>
-    <row r="10" spans="1:124" ht="163.19999999999999" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="15">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-    </row>
-    <row r="11" spans="1:124" ht="168.6" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="53">
-        <v>4</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="29"/>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="29"/>
-      <c r="BN11" s="31"/>
-      <c r="BO11" s="29"/>
-      <c r="BP11" s="31"/>
-      <c r="BQ11" s="29"/>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="29"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="29"/>
-      <c r="BV11" s="31"/>
-      <c r="BW11" s="29"/>
-      <c r="BX11" s="31"/>
-      <c r="BY11" s="29"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="29"/>
-      <c r="CB11" s="31"/>
-      <c r="CC11" s="29"/>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="29"/>
-      <c r="CF11" s="31"/>
-      <c r="CG11" s="29"/>
-      <c r="CH11" s="31"/>
-      <c r="CI11" s="29"/>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="29"/>
-      <c r="CL11" s="31"/>
-      <c r="CM11" s="29"/>
-      <c r="CN11" s="31"/>
-      <c r="CO11" s="29"/>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="29"/>
-      <c r="CR11" s="31"/>
-      <c r="CS11" s="29"/>
-      <c r="CT11" s="31"/>
-      <c r="CU11" s="29"/>
-      <c r="CV11" s="31"/>
-      <c r="CW11" s="29"/>
-      <c r="CX11" s="31"/>
-      <c r="CY11" s="29"/>
-      <c r="CZ11" s="31"/>
-      <c r="DA11" s="29"/>
-      <c r="DB11" s="31"/>
-      <c r="DC11" s="29"/>
-      <c r="DD11" s="31"/>
-      <c r="DE11" s="29"/>
-      <c r="DF11" s="31"/>
-      <c r="DG11" s="29"/>
-      <c r="DH11" s="31"/>
-      <c r="DI11" s="29"/>
-      <c r="DJ11" s="31"/>
-      <c r="DK11" s="31"/>
-      <c r="DL11" s="31"/>
-      <c r="DM11" s="31"/>
-      <c r="DN11" s="32"/>
-      <c r="DO11" s="31"/>
-      <c r="DP11" s="33"/>
-      <c r="DQ11" s="33"/>
-      <c r="DR11" s="33"/>
-      <c r="DS11" s="33"/>
-      <c r="DT11" s="33"/>
-    </row>
-    <row r="12" spans="1:124" ht="166.8" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="15">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-    </row>
-    <row r="13" spans="1:124" ht="166.8" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="15">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-    </row>
-    <row r="14" spans="1:124" ht="63" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="15">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-    </row>
-    <row r="15" spans="1:124" ht="76.95" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="15">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-    </row>
-    <row r="16" spans="1:124" ht="55.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="15">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-    </row>
-    <row r="17" spans="1:26" ht="41.4" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="15">
-        <v>10</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-    </row>
-    <row r="18" spans="1:26" ht="58.2" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="15">
-        <v>11</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-    </row>
-    <row r="19" spans="1:26" ht="55.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="15">
-        <v>12</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-    </row>
-    <row r="20" spans="1:26" ht="63" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="15">
-        <v>13</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-    </row>
     <row r="21" spans="1:26" ht="220.8" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="15">
@@ -5795,12 +5852,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -5808,6 +5859,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AB11 AD11 AJ11 AL11 AN11 AP11 AR11 AV11 AX11 AZ11 BB11 BD11 BF11 BH11 BJ11 BL11 BN11 BP11 BR11 BT11 BV11 BX11 BZ11 CF11 CH11 CL11 CN11 CP11 CR11 CT11 CV11 CX11 CZ11 DB11 DD11 DF11 DH11 DJ11:DT11 CB11 CJ11 N11 P11 R11 T11 V11 X11 Z11 AF11 AH11">
@@ -6050,45 +6107,45 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="71" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="70" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="70" t="s">
         <v>23</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="57"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="57"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="70"/>
       <c r="U6" s="5"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
@@ -6098,29 +6155,29 @@
     </row>
     <row r="7" spans="1:124" ht="84" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="57"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="70"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="57"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="57"/>
+      <c r="T7" s="70"/>
       <c r="U7" s="5"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
@@ -7467,6 +7524,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -7474,12 +7537,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N13 L17:L23 N17:N23 T17:T23 P17:P23 R17:R23 T8:T13 P8:P13 R8:R13 L8:L13">
@@ -7721,45 +7778,45 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="71" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="70" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="70" t="s">
         <v>23</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="57"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="57"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="70"/>
       <c r="U6" s="5"/>
       <c r="V6" s="29"/>
       <c r="W6" s="29"/>
@@ -7769,29 +7826,29 @@
     </row>
     <row r="7" spans="1:124" ht="84" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="57"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="57"/>
+      <c r="P7" s="70"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="57"/>
+      <c r="R7" s="70"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="57"/>
+      <c r="T7" s="70"/>
       <c r="U7" s="5"/>
       <c r="V7" s="29"/>
       <c r="W7" s="29"/>
@@ -7804,16 +7861,16 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="59" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="18"/>
@@ -7848,14 +7905,14 @@
       <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="59" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="15"/>
@@ -7884,14 +7941,14 @@
       <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="59" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="15"/>
@@ -7920,14 +7977,14 @@
       <c r="B11" s="15">
         <v>4</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="59" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="15"/>
@@ -7956,14 +8013,14 @@
       <c r="B12" s="15">
         <v>5</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="67" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="59" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="15"/>
@@ -7992,16 +8049,16 @@
       <c r="B13" s="15">
         <v>6</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="59" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="15"/>
@@ -8030,14 +8087,14 @@
       <c r="B14" s="15">
         <v>7</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="59" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="36"/>
@@ -8164,14 +8221,14 @@
       <c r="B15" s="15">
         <v>8</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="67" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="36"/>
@@ -8298,14 +8355,14 @@
       <c r="B16" s="15">
         <v>9</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="59" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="36"/>
@@ -8432,14 +8489,14 @@
       <c r="B17" s="15">
         <v>10</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="73" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="59" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="15"/>
@@ -8468,14 +8525,14 @@
       <c r="B18" s="15">
         <v>11</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="73" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="59" t="s">
         <v>54</v>
       </c>
       <c r="G18" s="15"/>
@@ -8504,14 +8561,14 @@
       <c r="B19" s="15">
         <v>12</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="59" t="s">
         <v>70</v>
       </c>
       <c r="G19" s="15"/>
@@ -8540,14 +8597,14 @@
       <c r="B20" s="15">
         <v>13</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="59" t="s">
         <v>71</v>
       </c>
       <c r="G20" s="15"/>
@@ -8576,14 +8633,14 @@
       <c r="B21" s="15">
         <v>14</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="59" t="s">
         <v>72</v>
       </c>
       <c r="G21" s="15"/>
@@ -8612,14 +8669,14 @@
       <c r="B22" s="15">
         <v>15</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="67" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="59" t="s">
         <v>66</v>
       </c>
       <c r="G22" s="15"/>
@@ -8648,14 +8705,14 @@
       <c r="B23" s="15">
         <v>16</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="59" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="15"/>
@@ -9138,6 +9195,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -9145,12 +9208,6 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="AT14:AT16 AB14:AB16 AD14:AD16 AJ14:AJ16 AL14:AL16 AN14:AN16 AP14:AP16 AR14:AR16 AV14:AV16 AX14:AX16 AZ14:AZ16 BB14:BB16 BD14:BD16 BF14:BF16 BH14:BH16 BJ14:BJ16 BL14:BL16 BN14:BN16 BP14:BP16 BR14:BR16 BT14:BT16 BV14:BV16 BX14:BX16 BZ14:BZ16 CF14:CF16 CH14:CH16 CL14:CL16 CN14:CN16 CP14:CP16 CR14:CR16 CT14:CT16 CV14:CV16 CX14:CX16 CZ14:CZ16 DB14:DB16 DD14:DD16 DF14:DF16 DH14:DH16 DJ14:DT16 CB14:CB16 CJ14:CJ16 N14:N16 P14:P16 R14:R16 T14:T16 V14:V16 X14:X16 Z14:Z16 AF14:AF16 AH14:AH16">
